--- a/data/2017 Stop and Frisk SDP Reviewed.xlsx
+++ b/data/2017 Stop and Frisk SDP Reviewed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Equity Center/StopAndFrisk/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Equity Center/Github/cvilleequity_stopandfrisk/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5522ABD-12DE-E940-8781-DD2220E62415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013E19FA-BF43-704A-A8E5-026C71DFB95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="195">
   <si>
     <r>
       <rPr>
@@ -54,33 +54,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>100 FRANKLIN AVE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1100 FRANKLIN AVE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1100 OAK ST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>100 OLD PRESTON AVE</t>
     </r>
   </si>
@@ -135,15 +108,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>1200 W MAINS T</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>1300 W MAIN ST</t>
     </r>
   </si>
@@ -333,15 +297,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>1200 OAK ST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>200 OAK ST</t>
     </r>
   </si>
@@ -351,15 +306,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>1200 RIDGE MCINTIRE RD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>200 RIDGE ST</t>
     </r>
   </si>
@@ -405,34 +351,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>1304 7TH ST SW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>310 W MAIN ST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1336 7 1/2 ST SW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>345 10TH ST NW</t>
     </r>
   </si>
   <si>
@@ -562,51 +481,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>420 10TH 1/2 ST NW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1420 MEAD AVE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>420 MEAD AVE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1475 RIDGE MCINTIRE RD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>500 1ST S</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>500 1ST ST S</t>
     </r>
   </si>
@@ -634,15 +508,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>1505 PRESTON AVE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>508 HARRIS RD</t>
     </r>
   </si>
@@ -661,25 +526,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>64 LAMBETH COMMONS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>700 1ST ST S</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1700 6th STSE</t>
     </r>
   </si>
   <si>
@@ -806,15 +653,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>733 PROSECT AVE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>800 BOLLING AVE</t>
     </r>
   </si>
@@ -851,15 +689,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>900 1ST S</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>900 PARK ST</t>
     </r>
   </si>
@@ -869,25 +698,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>900 S 1st ST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>908 1ST ST S</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>928 1ST STS</t>
     </r>
   </si>
   <si>
@@ -1030,15 +841,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>1208 8TH ST NW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>400 12TH ST NW</t>
     </r>
   </si>
@@ -1048,24 +850,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>500 COURT SW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1500 COURT SW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>500 W MAIN ST</t>
     </r>
   </si>
@@ -1075,24 +859,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>1501 Rockland Ave</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>5115TH ST N</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>615 E WATER ST</t>
     </r>
   </si>
@@ -1103,15 +869,6 @@
         <rFont val="Arial"/>
       </rPr>
       <t>702 NASSAU ST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1725 STONEHENGE AVE</t>
     </r>
   </si>
   <si>
@@ -1393,9 +1150,6 @@
     </r>
   </si>
   <si>
-    <t>64 LAMBETH COMMONS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Narcotics Investigation</t>
   </si>
   <si>
@@ -1420,15 +1174,9 @@
     <t>100 AVON ST</t>
   </si>
   <si>
-    <t>100 FRANKLIN AVE</t>
-  </si>
-  <si>
     <t>100 OLD PRESTON AVE</t>
   </si>
   <si>
-    <t>120 13THSTSW</t>
-  </si>
-  <si>
     <t>120 7TH ST NE</t>
   </si>
   <si>
@@ -1438,18 +1186,12 @@
     <t>1500 CARLTON AVE</t>
   </si>
   <si>
-    <t>200W MARKET ST</t>
-  </si>
-  <si>
     <t>240 HARTMANS MILL RD</t>
   </si>
   <si>
     <t>310 W MAIN ST</t>
   </si>
   <si>
-    <t>500 1ST S</t>
-  </si>
-  <si>
     <t>500 MEADE AVE</t>
   </si>
   <si>
@@ -1495,15 +1237,9 @@
     <t>700 PROSPECT AVE</t>
   </si>
   <si>
-    <t>709 6TH STSE</t>
-  </si>
-  <si>
     <t>709 6TH ST SE</t>
   </si>
   <si>
-    <t>733 PROSECT AVE</t>
-  </si>
-  <si>
     <t>769 PROSPECT AVE</t>
   </si>
   <si>
@@ -1516,9 +1252,6 @@
     <t>832 CHERRY AVE</t>
   </si>
   <si>
-    <t>900 1ST S</t>
-  </si>
-  <si>
     <t>900 5TH ST SW</t>
   </si>
   <si>
@@ -1543,27 +1276,15 @@
     <t>1427 UNIVERSITY AVE</t>
   </si>
   <si>
-    <t>908 1ST STS</t>
-  </si>
-  <si>
     <t>768 PROSPECT AVE</t>
   </si>
   <si>
-    <t xml:space="preserve">64 LAMBETH COMMONS </t>
-  </si>
-  <si>
     <t>615 E WATER ST</t>
   </si>
   <si>
-    <t>511 5TH ST N</t>
-  </si>
-  <si>
     <t>400 12TH ST NW</t>
   </si>
   <si>
-    <t>200E WATER ST</t>
-  </si>
-  <si>
     <t>114 LANKFORD AVE</t>
   </si>
   <si>
@@ -1592,6 +1313,84 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>908 1ST ST S</t>
+  </si>
+  <si>
+    <t>928 1ST ST S</t>
+  </si>
+  <si>
+    <t>200 W MARKET ST</t>
+  </si>
+  <si>
+    <t>1200 W MAIN ST</t>
+  </si>
+  <si>
+    <t>100 OAK ST</t>
+  </si>
+  <si>
+    <t>304 7TH ST SW</t>
+  </si>
+  <si>
+    <t>336 7 1/2 ST SW</t>
+  </si>
+  <si>
+    <t>475 RIDGE MCINTIRE RD</t>
+  </si>
+  <si>
+    <t>505 PRESTON AVE</t>
+  </si>
+  <si>
+    <t>700 6th ST SE</t>
+  </si>
+  <si>
+    <t>200 RIDGE MCINTIRE RD</t>
+  </si>
+  <si>
+    <t>200 OAK ST</t>
+  </si>
+  <si>
+    <t>725 STONEHENGE AVE</t>
+  </si>
+  <si>
+    <t>120 13TH ST NW</t>
+  </si>
+  <si>
+    <t>100 FRANKLIN ST</t>
+  </si>
+  <si>
+    <t>345 10TH ST NW</t>
+  </si>
+  <si>
+    <t>420 10 1/2 ST NW</t>
+  </si>
+  <si>
+    <t>420 MEADE AVE</t>
+  </si>
+  <si>
+    <t>500 1ST ST S</t>
+  </si>
+  <si>
+    <t>900 1ST ST S</t>
+  </si>
+  <si>
+    <t>500 COURT SQ</t>
+  </si>
+  <si>
+    <t>511 5TH ST NW</t>
+  </si>
+  <si>
+    <t>733 PROSPECT AVE</t>
+  </si>
+  <si>
+    <t>501 Rockland Ave</t>
+  </si>
+  <si>
+    <t>208 8TH ST NW</t>
+  </si>
+  <si>
+    <t>1801 LAMBETH LN</t>
   </si>
 </sst>
 </file>
@@ -2577,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B139" zoomScale="207" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="144" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2592,16 +2391,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2609,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2626,10 +2425,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2637,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2654,10 +2453,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2665,69 +2464,69 @@
         <v>0</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
+      <c r="B7" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>4</v>
+      <c r="B8" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
+      <c r="B9" s="41" t="s">
+        <v>183</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
+      <c r="B10" s="41" t="s">
+        <v>173</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2735,13 +2534,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2749,13 +2548,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2763,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2777,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2791,13 +2590,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2805,13 +2604,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2819,13 +2618,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2833,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2847,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2861,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2875,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2889,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2903,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2917,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2931,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2945,27 +2744,27 @@
         <v>0</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>12</v>
+      <c r="B27" s="41" t="s">
+        <v>172</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2973,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2987,13 +2786,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3001,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3015,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3029,13 +2828,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3043,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3057,13 +2856,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3071,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3085,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3099,13 +2898,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3113,13 +2912,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3127,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3141,13 +2940,13 @@
         <v>0</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3155,13 +2954,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3169,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3183,13 +2982,13 @@
         <v>0</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3197,13 +2996,13 @@
         <v>0</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3211,27 +3010,27 @@
         <v>0</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>34</v>
+      <c r="B46" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3239,27 +3038,27 @@
         <v>0</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>36</v>
+      <c r="B48" s="41" t="s">
+        <v>179</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3267,13 +3066,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3281,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3295,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3309,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3323,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3337,13 +3136,13 @@
         <v>0</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3351,13 +3150,13 @@
         <v>0</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -3365,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3379,27 +3178,27 @@
         <v>0</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>42</v>
+      <c r="B58" s="41" t="s">
+        <v>174</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3407,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3421,13 +3220,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3435,41 +3234,41 @@
         <v>0</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>44</v>
+      <c r="B62" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>45</v>
+      <c r="B63" s="41" t="s">
+        <v>184</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3477,13 +3276,13 @@
         <v>0</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3491,13 +3290,13 @@
         <v>0</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3505,83 +3304,83 @@
         <v>0</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>56</v>
+      <c r="B67" s="41" t="s">
+        <v>185</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>57</v>
+      <c r="B68" s="41" t="s">
+        <v>186</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>58</v>
+      <c r="B69" s="41" t="s">
+        <v>186</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>59</v>
+      <c r="B70" s="42" t="s">
+        <v>176</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>60</v>
+      <c r="B71" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3589,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3603,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3617,13 +3416,13 @@
         <v>0</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3631,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3645,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3659,27 +3458,27 @@
         <v>0</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>64</v>
+      <c r="B78" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3687,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C79" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3701,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3715,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3729,13 +3528,13 @@
         <v>0</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3743,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3757,27 +3556,27 @@
         <v>0</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>67</v>
+      <c r="B85" s="41" t="s">
+        <v>194</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3785,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3799,27 +3598,27 @@
         <v>0</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>69</v>
+      <c r="B88" s="42" t="s">
+        <v>178</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3827,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3841,13 +3640,13 @@
         <v>0</v>
       </c>
       <c r="B90" s="41" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3855,13 +3654,13 @@
         <v>0</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3869,13 +3668,13 @@
         <v>0</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3883,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3897,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="B94" s="41" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D94" s="48" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3911,13 +3710,13 @@
         <v>0</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3925,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3939,13 +3738,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3953,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D98" s="47" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
@@ -3967,13 +3766,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3981,27 +3780,27 @@
         <v>0</v>
       </c>
       <c r="B100" s="41" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>82</v>
+      <c r="B101" s="41" t="s">
+        <v>191</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4009,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="41" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4023,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4037,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="B104" s="42" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D104" s="47" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4051,13 +3850,13 @@
         <v>0</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4065,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="B106" s="41" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4079,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4093,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="B108" s="41" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4107,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4121,13 +3920,13 @@
         <v>0</v>
       </c>
       <c r="B110" s="41" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4135,13 +3934,13 @@
         <v>0</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4149,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="B112" s="42" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4163,13 +3962,13 @@
         <v>0</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4177,27 +3976,27 @@
         <v>0</v>
       </c>
       <c r="B114" s="41" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>87</v>
+      <c r="B115" s="42" t="s">
+        <v>188</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
@@ -4205,13 +4004,13 @@
         <v>0</v>
       </c>
       <c r="B116" s="41" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4219,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4233,27 +4032,27 @@
         <v>0</v>
       </c>
       <c r="B118" s="41" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>89</v>
+      <c r="B119" s="42" t="s">
+        <v>188</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4261,13 +4060,13 @@
         <v>0</v>
       </c>
       <c r="B120" s="42" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4275,13 +4074,13 @@
         <v>0</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4289,27 +4088,27 @@
         <v>0</v>
       </c>
       <c r="B122" s="42" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C122" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>91</v>
+      <c r="B123" s="42" t="s">
+        <v>170</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4317,447 +4116,447 @@
         <v>0</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B125" s="45" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D125" s="27" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B131" s="37" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C134" s="28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B135" s="37" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C135" s="28" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C136" s="28" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B137" s="28" t="s">
-        <v>105</v>
+        <v>77</v>
+      </c>
+      <c r="B137" s="37" t="s">
+        <v>193</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B139" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B139" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="C139" s="28" t="s">
-        <v>125</v>
-      </c>
       <c r="D139" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B140" s="28" t="s">
-        <v>107</v>
+        <v>77</v>
+      </c>
+      <c r="B140" s="37" t="s">
+        <v>189</v>
       </c>
       <c r="C140" s="28" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B141" s="28" t="s">
-        <v>108</v>
+        <v>77</v>
+      </c>
+      <c r="B141" s="37" t="s">
+        <v>189</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="9" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B142" s="32" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B143" s="28" t="s">
-        <v>110</v>
+        <v>77</v>
+      </c>
+      <c r="B143" s="37" t="s">
+        <v>192</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B144" s="32" t="s">
-        <v>111</v>
+        <v>77</v>
+      </c>
+      <c r="B144" s="43" t="s">
+        <v>190</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B145" s="37" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B146" s="28" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B147" s="43" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B148" s="36" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C149" s="34" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A151" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B151" s="32" t="s">
-        <v>114</v>
+        <v>77</v>
+      </c>
+      <c r="B151" s="43" t="s">
+        <v>181</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B152" s="28" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="9" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B154" s="32" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="9" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B155" s="43" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/2017 Stop and Frisk SDP Reviewed.xlsx
+++ b/data/2017 Stop and Frisk SDP Reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Equity Center/Github/cvilleequity_stopandfrisk/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013E19FA-BF43-704A-A8E5-026C71DFB95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36D079D-5687-EB4D-B5A2-557ADA15C1B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,15 +324,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>1207 RIDGE ST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>208 8TH ST NW</t>
     </r>
   </si>
@@ -1291,9 +1282,6 @@
     <t>100 2ND ST SW</t>
   </si>
   <si>
-    <t>110 LANKFORD AVE</t>
-  </si>
-  <si>
     <t>100 ROOSEVELT BROWN BLVD</t>
   </si>
   <si>
@@ -1391,6 +1379,12 @@
   </si>
   <si>
     <t>1801 LAMBETH LN</t>
+  </si>
+  <si>
+    <t>10 LANKFORD AVE</t>
+  </si>
+  <si>
+    <t>207 RIDGE ST</t>
   </si>
 </sst>
 </file>
@@ -2376,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="144" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="144" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2391,16 +2385,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="40" t="s">
         <v>119</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2408,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -2436,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
@@ -2464,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
@@ -2478,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>12</v>
@@ -2492,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>12</v>
@@ -2506,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>12</v>
@@ -2520,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>12</v>
@@ -2548,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>12</v>
@@ -2576,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>12</v>
@@ -2604,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>12</v>
@@ -2632,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>12</v>
@@ -2660,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>12</v>
@@ -2688,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>12</v>
@@ -2716,13 +2710,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2744,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
@@ -2758,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>12</v>
@@ -2772,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>12</v>
@@ -2800,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>12</v>
@@ -2828,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>12</v>
@@ -2856,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>12</v>
@@ -2884,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>12</v>
@@ -2912,13 +2906,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2940,13 +2934,13 @@
         <v>0</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2968,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>13</v>
@@ -2996,13 +2990,13 @@
         <v>0</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3024,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>16</v>
@@ -3041,7 +3035,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>17</v>
@@ -3052,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>12</v>
@@ -3080,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>12</v>
@@ -3108,13 +3102,13 @@
         <v>0</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3125,7 +3119,7 @@
         <v>32</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>17</v>
@@ -3135,14 +3129,14 @@
       <c r="A54" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>33</v>
+      <c r="B54" s="42" t="s">
+        <v>194</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3150,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>12</v>
@@ -3164,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3178,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>12</v>
@@ -3192,13 +3186,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3206,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>12</v>
@@ -3220,13 +3214,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3234,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>12</v>
@@ -3248,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>12</v>
@@ -3262,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>12</v>
@@ -3276,13 +3270,13 @@
         <v>0</v>
       </c>
       <c r="B64" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="49" t="s">
         <v>165</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3290,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>12</v>
@@ -3304,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3318,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>12</v>
@@ -3332,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3346,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>12</v>
@@ -3360,13 +3354,13 @@
         <v>0</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3374,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>12</v>
@@ -3388,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3402,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>12</v>
@@ -3416,13 +3410,13 @@
         <v>0</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3430,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>12</v>
@@ -3444,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3458,10 +3452,10 @@
         <v>0</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>17</v>
@@ -3472,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3486,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>15</v>
@@ -3500,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3514,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>12</v>
@@ -3528,13 +3522,13 @@
         <v>0</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3542,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>17</v>
@@ -3556,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3570,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>12</v>
@@ -3584,13 +3578,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3598,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>17</v>
@@ -3612,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>12</v>
@@ -3626,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>12</v>
@@ -3640,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="B90" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3654,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>13</v>
@@ -3668,13 +3662,13 @@
         <v>0</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3682,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>12</v>
@@ -3696,13 +3690,13 @@
         <v>0</v>
       </c>
       <c r="B94" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3710,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>12</v>
@@ -3724,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3738,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>12</v>
@@ -3752,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
@@ -3766,13 +3760,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3780,13 +3774,13 @@
         <v>0</v>
       </c>
       <c r="B100" s="41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3794,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>12</v>
@@ -3808,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>12</v>
@@ -3822,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>12</v>
@@ -3836,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="B104" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3850,13 +3844,13 @@
         <v>0</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3864,13 +3858,13 @@
         <v>0</v>
       </c>
       <c r="B106" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3878,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>12</v>
@@ -3892,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="B108" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>12</v>
@@ -3906,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>17</v>
@@ -3920,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="B110" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>12</v>
@@ -3934,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>12</v>
@@ -3948,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="B112" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3962,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>12</v>
@@ -3976,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="B114" s="41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3990,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>12</v>
@@ -4004,13 +3998,13 @@
         <v>0</v>
       </c>
       <c r="B116" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4018,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>17</v>
@@ -4032,13 +4026,13 @@
         <v>0</v>
       </c>
       <c r="B118" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4046,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="B119" s="42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>12</v>
@@ -4060,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="B120" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4074,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>15</v>
@@ -4088,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="B122" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>12</v>
@@ -4102,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>12</v>
@@ -4116,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>12</v>
@@ -4127,83 +4121,83 @@
     </row>
     <row r="125" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B125" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D125" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B126" s="28" t="s">
-        <v>78</v>
-      </c>
       <c r="C126" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C128" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>19</v>
@@ -4211,13 +4205,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B131" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>17</v>
@@ -4225,13 +4219,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>19</v>
@@ -4239,13 +4233,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>19</v>
@@ -4253,10 +4247,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C134" s="28" t="s">
         <v>15</v>
@@ -4267,27 +4261,27 @@
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B135" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C135" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C136" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>17</v>
@@ -4295,13 +4289,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B137" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>17</v>
@@ -4309,13 +4303,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>17</v>
@@ -4323,13 +4317,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B139" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>19</v>
@@ -4337,13 +4331,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B140" s="37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C140" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>19</v>
@@ -4351,27 +4345,27 @@
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B141" s="37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B142" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>17</v>
@@ -4379,13 +4373,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B143" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>17</v>
@@ -4393,13 +4387,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>19</v>
@@ -4407,13 +4401,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B145" s="37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>19</v>
@@ -4421,13 +4415,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B146" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>19</v>
@@ -4435,27 +4429,27 @@
     </row>
     <row r="147" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B147" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B148" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>17</v>
@@ -4463,27 +4457,27 @@
     </row>
     <row r="149" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C149" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>17</v>
@@ -4491,27 +4485,27 @@
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A151" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B151" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B152" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>17</v>
@@ -4519,13 +4513,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>17</v>
@@ -4533,13 +4527,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B154" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D154" s="12" t="s">
         <v>17</v>
@@ -4547,13 +4541,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B155" s="43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D155" s="12" t="s">
         <v>17</v>
